--- a/doc_protocol_RS232.xlsx
+++ b/doc_protocol_RS232.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software_uC\Rambo2\Rambo2_FW_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC24CED-5767-42EA-B10B-34B2590B62D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DA54EC-D251-4EE6-A8F5-4F5AA2ABB8B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9390" windowWidth="28800" windowHeight="3420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9390" windowWidth="28800" windowHeight="2985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -2910,7 +2910,7 @@
     <t>Anzahl der Messwete, über die ein Mittelwert gebildet wird; Messungen alle 40ms =&gt; bei Filterdepth=25 erneuert sich der Wert einmal pro Sekunde</t>
   </si>
   <si>
-    <t>bit 0..4 -&gt; Pin10..14; bit 5 -&gt; Pin5; bit 14..15 -&gt; LiaPin6..7</t>
+    <t>bit 0..4 -&gt; Pin14..10; bit 5 -&gt; Pin5; bit 14..15 -&gt; LiaPin6..7</t>
   </si>
 </sst>
 </file>
@@ -4497,8 +4497,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
